--- a/TP-Integrador/resources/excel/FacturasAT.xlsx
+++ b/TP-Integrador/resources/excel/FacturasAT.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\eclipse-workspace-2024\PruebaAutomatizacion\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npompeo\Documents\GitHub\Programacion_concurrente\TP-Integrador\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3216D773-85BE-4BAE-A7BC-21189052A29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78361CD1-40EA-4835-A62D-5ED597DD274D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3525" windowWidth="20640" windowHeight="11160" tabRatio="592" xr2:uid="{5FA813D1-FF21-4F9E-B3D3-A36B7129D2BA}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="7380" tabRatio="592" xr2:uid="{5FA813D1-FF21-4F9E-B3D3-A36B7129D2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
   <si>
     <t>FECHA</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Consumidor Final</t>
+  </si>
+  <si>
+    <t>ERROR</t>
   </si>
   <si>
     <t>PROCESADO</t>
@@ -444,19 +447,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B481238B-C6F0-4B3C-B9AA-74DAEFCF3765}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="14.42578125"/>
+    <col min="2" max="2" customWidth="true" width="24.140625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -515,13 +516,13 @@
       <c r="I2" s="4">
         <v>0.21</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
+      <c r="J2" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45474</v>
+        <v>45473</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -543,13 +544,13 @@
       <c r="I3" s="4">
         <v>0.21</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
+      <c r="J3" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45475</v>
+        <v>45473</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -571,13 +572,13 @@
       <c r="I4" s="4">
         <v>0.21</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
+      <c r="J4" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45476</v>
+        <v>45473</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -599,13 +600,13 @@
       <c r="I5" s="4">
         <v>0.21</v>
       </c>
-      <c r="J5" t="s">
-        <v>14</v>
+      <c r="J5" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45477</v>
+        <v>45473</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -627,8 +628,8 @@
       <c r="I6" s="4">
         <v>0.21</v>
       </c>
-      <c r="J6" t="s">
-        <v>14</v>
+      <c r="J6" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -655,8 +656,8 @@
       <c r="I7" s="4">
         <v>0.21</v>
       </c>
-      <c r="J7" t="s">
-        <v>14</v>
+      <c r="J7" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -683,8 +684,8 @@
       <c r="I8" s="4">
         <v>0.21</v>
       </c>
-      <c r="J8" t="s">
-        <v>14</v>
+      <c r="J8" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -711,8 +712,8 @@
       <c r="I9" s="4">
         <v>0.21</v>
       </c>
-      <c r="J9" t="s">
-        <v>14</v>
+      <c r="J9" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -739,8 +740,8 @@
       <c r="I10" s="4">
         <v>0.21</v>
       </c>
-      <c r="J10" t="s">
-        <v>14</v>
+      <c r="J10" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/TP-Integrador/resources/excel/FacturasAT.xlsx
+++ b/TP-Integrador/resources/excel/FacturasAT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npompeo\Documents\GitHub\Programacion_concurrente\TP-Integrador\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\eclipse-workspace-2024\PruebaAutomatizacion\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78361CD1-40EA-4835-A62D-5ED597DD274D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE300D9-BC8F-43D7-B051-EEB1916F9595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="7380" tabRatio="592" xr2:uid="{5FA813D1-FF21-4F9E-B3D3-A36B7129D2BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="592" xr2:uid="{5FA813D1-FF21-4F9E-B3D3-A36B7129D2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="16">
   <si>
     <t>FECHA</t>
   </si>
@@ -43,12 +43,6 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>tipo comprobante</t>
-  </si>
-  <si>
-    <t>punto de venta</t>
-  </si>
-  <si>
     <t>COND IVA</t>
   </si>
   <si>
@@ -61,12 +55,6 @@
     <t>PRECIO</t>
   </si>
   <si>
-    <t>Tipo Documento</t>
-  </si>
-  <si>
-    <t>Nro Documento</t>
-  </si>
-  <si>
     <t>DNI</t>
   </si>
   <si>
@@ -79,7 +67,19 @@
     <t>Consumidor Final</t>
   </si>
   <si>
-    <t>ERROR</t>
+    <t>CUIL</t>
+  </si>
+  <si>
+    <t>PUNTO DE VENTA</t>
+  </si>
+  <si>
+    <t>TIPO DE COMPROBANTE</t>
+  </si>
+  <si>
+    <t>TIPO DOCUMENTO</t>
+  </si>
+  <si>
+    <t>NRO DOCUMENTO</t>
   </si>
   <si>
     <t>PROCESADO</t>
@@ -89,8 +89,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -121,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -130,7 +131,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,19 +454,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B481238B-C6F0-4B3C-B9AA-74DAEFCF3765}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="14.42578125"/>
-    <col min="2" max="2" customWidth="true" width="24.140625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0"/>
+    <col min="2" max="2" customWidth="true" width="16.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875"/>
-    <col min="5" max="5" customWidth="true" width="15.85546875"/>
+    <col min="5" max="5" customWidth="true" width="18.42578125"/>
     <col min="6" max="6" customWidth="true" width="21.7109375"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="17.28515625"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -465,28 +477,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -494,19 +506,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45473</v>
+        <v>45472</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
@@ -522,21 +534,23 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45473</v>
+        <v>45472</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>41136360</v>
+      </c>
       <c r="G3" s="1">
         <v>2000</v>
       </c>
@@ -550,19 +564,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45473</v>
+        <v>45472</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
@@ -578,27 +592,27 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45473</v>
+        <v>45472</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>4000</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="4">
-        <v>0.21</v>
+      <c r="I5" s="5">
+        <v>0.105</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>15</v>
@@ -606,19 +620,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45473</v>
+        <v>45472</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
@@ -634,19 +648,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45473</v>
+        <v>45472</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
@@ -662,19 +676,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45473</v>
+        <v>45472</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
@@ -690,27 +704,29 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45473</v>
+        <v>45472</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>20411363601</v>
+      </c>
       <c r="G9" s="1">
         <v>8000</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="4">
-        <v>0.21</v>
+      <c r="I9" s="5">
+        <v>0.105</v>
       </c>
       <c r="J9" t="s" s="0">
         <v>15</v>
@@ -718,29 +734,173 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45473</v>
+        <v>45472</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="4">
         <v>0.21</v>
       </c>
       <c r="J10" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45472</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>41136360</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45472</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45472</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>4000</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45472</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45472</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="J15" t="s" s="0">
         <v>15</v>
       </c>
     </row>
